--- a/data/firstaid_2020.xlsx
+++ b/data/firstaid_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d0yxn\Desktop\Develop\SchoolAccident\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D04A3809-4886-41AB-B28E-DC58E976E874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B22E8-A582-4916-9E67-A4C7D30FBBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{F9266CF9-0A2A-4BA1-A5E4-F7D40EAC60F1}"/>
   </bookViews>
@@ -1049,9 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE44870-2984-4CE2-856E-EC3C605985F8}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1549,11 +1551,6 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D21">
-        <v>144047</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
